--- a/output/aggregate_tables/Analysis Group Statistics/Area 67_summary.xlsx
+++ b/output/aggregate_tables/Analysis Group Statistics/Area 67_summary.xlsx
@@ -1819,19 +1819,19 @@
         <v>0.9993912493463557</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>47.09360415973406</v>
+        <v>47.07160509662231</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>45.5390362139465</v>
+        <v>45.55703176216787</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>7.367359626319428</v>
+        <v>7.371363141209828</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>92.63264037368054</v>
+        <v>92.62863685879017</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>7.367359626319428</v>
+        <v>7.371363141209828</v>
       </c>
     </row>
   </sheetData>
